--- a/P&E/XLS/clase01x1.xlsx
+++ b/P&E/XLS/clase01x1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100A929B-9324-4949-BA68-83E847B21A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p12" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,25 @@
   <definedNames>
     <definedName name="Datos">'Media, Mediana y Moda'!$A$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>RENDIMIENTO</t>
   </si>
@@ -73,16 +87,70 @@
   </si>
   <si>
     <t>Es el dato que se repite más.</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>la media (promedio) es el dato que obtenemos de sumar todos los valores y dividirlos por el número de datos.</t>
+  </si>
+  <si>
+    <t>la moda es el dato [f] que se repite más.</t>
+  </si>
+  <si>
+    <t>la mediana es la posición central [f] luego de ordenados los datos.</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,9 +166,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,7 +179,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,23 +231,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -211,14 +305,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -292,6 +389,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A87-4353-9BC5-AD2AECB415AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -349,6 +451,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A87-4353-9BC5-AD2AECB415AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -406,6 +513,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A87-4353-9BC5-AD2AECB415AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -426,6 +538,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -470,9 +583,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -540,6 +653,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CA2-4CAC-8398-0D0958FDEE53}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -591,6 +709,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2CA2-4CAC-8398-0D0958FDEE53}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -642,6 +765,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2CA2-4CAC-8398-0D0958FDEE53}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -693,6 +821,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2CA2-4CAC-8398-0D0958FDEE53}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -713,6 +846,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -757,9 +891,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -771,7 +905,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -794,6 +927,13 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -801,6 +941,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -850,6 +993,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCCB-4D71-A5F0-0F5CD8C5276F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -865,7 +1013,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -897,7 +1044,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -927,7 +1080,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvPr id="3" name="2 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -964,7 +1123,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -983,23 +1148,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D6" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D6" totalsRowCount="1">
   <tableColumns count="4">
-    <tableColumn id="1" name="RENDIMIENTO" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="MAÑANA" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="TARDE" totalsRowFunction="sum"/>
-    <tableColumn id="4" name="NOCHE" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="RENDIMIENTO" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MAÑANA" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TARDE" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="NOCHE" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:B7" totalsRowCount="1">
-  <autoFilter ref="A1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:B7" totalsRowCount="1">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Cantidad Empleados" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Salario" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moneda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Cantidad Empleados" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Salario" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1048,7 +1213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1081,9 +1246,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1116,6 +1298,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1291,21 +1490,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1402,20 +1601,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>50</v>
       </c>
@@ -1431,7 +1630,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1439,7 +1638,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1447,7 +1646,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1455,7 +1654,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1463,7 +1662,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1671,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <f>SUM(Tabla2[Cantidad Empleados])</f>
         <v>100</v>
@@ -1488,27 +1687,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D11" sqref="D11:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="5"/>
+    <col min="5" max="5" width="11.42578125" style="4"/>
     <col min="6" max="6" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F1">
@@ -1516,7 +1715,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>34</v>
       </c>
@@ -1530,7 +1729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>56</v>
       </c>
@@ -1541,7 +1740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>12</v>
       </c>
@@ -1551,7 +1750,7 @@
       <c r="C4" s="3">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F4">
@@ -1559,7 +1758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>42</v>
       </c>
@@ -1573,7 +1772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>67</v>
       </c>
@@ -1584,7 +1783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>29</v>
       </c>
@@ -1594,7 +1793,7 @@
       <c r="C7" s="3">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7">
@@ -1602,9 +1801,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="F8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
